--- a/data/pca/factorExposure/factorExposure_2017-09-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02347597319983088</v>
+        <v>0.006154282565790072</v>
       </c>
       <c r="C2">
-        <v>0.0001994495197583822</v>
+        <v>0.04132521200615601</v>
       </c>
       <c r="D2">
-        <v>0.01502708218125243</v>
+        <v>0.02958033219007223</v>
       </c>
       <c r="E2">
-        <v>-0.007482749488203117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0319462606788567</v>
+      </c>
+      <c r="F2">
+        <v>-0.02649765726237821</v>
+      </c>
+      <c r="G2">
+        <v>0.03542291379800184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01356511782941176</v>
+        <v>0.05031320579091389</v>
       </c>
       <c r="C3">
-        <v>-0.04573939633752064</v>
+        <v>0.07658884621182398</v>
       </c>
       <c r="D3">
-        <v>0.0110957289836572</v>
+        <v>0.01506267957706589</v>
       </c>
       <c r="E3">
-        <v>-0.001025766333307152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08941255723774069</v>
+      </c>
+      <c r="F3">
+        <v>-0.06268857587452538</v>
+      </c>
+      <c r="G3">
+        <v>0.08369077638246669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02205792233393898</v>
+        <v>0.0541090903600743</v>
       </c>
       <c r="C4">
-        <v>-0.01517424510672464</v>
+        <v>0.06221024308766504</v>
       </c>
       <c r="D4">
-        <v>0.06157908637506086</v>
+        <v>0.02319737310432402</v>
       </c>
       <c r="E4">
-        <v>0.01757195550074386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01702519819520259</v>
+      </c>
+      <c r="F4">
+        <v>-0.01055413967923708</v>
+      </c>
+      <c r="G4">
+        <v>0.05618125416365862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01504828738844972</v>
+        <v>0.03538097955888707</v>
       </c>
       <c r="C6">
-        <v>-0.01566303663859898</v>
+        <v>0.04975822254896771</v>
       </c>
       <c r="D6">
-        <v>0.07975634770515061</v>
+        <v>0.01564946495323824</v>
       </c>
       <c r="E6">
-        <v>0.008952307992159379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01630236019157476</v>
+      </c>
+      <c r="F6">
+        <v>-0.01344256356217383</v>
+      </c>
+      <c r="G6">
+        <v>0.03534193490099017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.009918768583399053</v>
+        <v>0.01427467262289203</v>
       </c>
       <c r="C7">
-        <v>-0.0002592218038901628</v>
+        <v>0.03509864228930114</v>
       </c>
       <c r="D7">
-        <v>0.03098237605727829</v>
+        <v>0.01332710980651959</v>
       </c>
       <c r="E7">
-        <v>0.07308034292354046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008549775160444046</v>
+      </c>
+      <c r="F7">
+        <v>-0.009107977747912142</v>
+      </c>
+      <c r="G7">
+        <v>0.09136354196088219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0003406482852062125</v>
+        <v>-0.002547805697610277</v>
       </c>
       <c r="C8">
-        <v>0.0042759502960576</v>
+        <v>0.01875379644195697</v>
       </c>
       <c r="D8">
-        <v>0.004855890637927524</v>
+        <v>0.003992646568075159</v>
       </c>
       <c r="E8">
-        <v>0.009148281843221711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02281497562174836</v>
+      </c>
+      <c r="F8">
+        <v>-0.02568065911860894</v>
+      </c>
+      <c r="G8">
+        <v>0.02753304507524813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0147555553147935</v>
+        <v>0.03005385052951097</v>
       </c>
       <c r="C9">
-        <v>-0.01433180263552374</v>
+        <v>0.04299899137072712</v>
       </c>
       <c r="D9">
-        <v>0.04674494660699434</v>
+        <v>0.01602971176796418</v>
       </c>
       <c r="E9">
-        <v>0.008149994884684597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01291911403882759</v>
+      </c>
+      <c r="F9">
+        <v>-0.01683591318554152</v>
+      </c>
+      <c r="G9">
+        <v>0.04792460929793994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01287749604089697</v>
+        <v>0.09252294280266912</v>
       </c>
       <c r="C10">
-        <v>-0.1647628746870948</v>
+        <v>-0.1847923894217169</v>
       </c>
       <c r="D10">
-        <v>-0.1168899017642948</v>
+        <v>-0.01744518109717623</v>
       </c>
       <c r="E10">
-        <v>0.01065801399796695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01244623669548184</v>
+      </c>
+      <c r="F10">
+        <v>0.01579207040406377</v>
+      </c>
+      <c r="G10">
+        <v>0.04708297876890774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001098323829448257</v>
+        <v>0.03027251570984291</v>
       </c>
       <c r="C11">
-        <v>-0.004435978287562732</v>
+        <v>0.05345730109028961</v>
       </c>
       <c r="D11">
-        <v>0.04316337196791861</v>
+        <v>0.002333649423237135</v>
       </c>
       <c r="E11">
-        <v>-0.006854088726364768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007166602887565498</v>
+      </c>
+      <c r="F11">
+        <v>-0.02593980477197374</v>
+      </c>
+      <c r="G11">
+        <v>0.03037557432216418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005606413028901283</v>
+        <v>0.03033903029662575</v>
       </c>
       <c r="C12">
-        <v>-0.01280193413373421</v>
+        <v>0.04626213437955749</v>
       </c>
       <c r="D12">
-        <v>0.04552763730976087</v>
+        <v>0.006338821110607237</v>
       </c>
       <c r="E12">
-        <v>0.001884544407322762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0006751045690500242</v>
+      </c>
+      <c r="F12">
+        <v>-0.01023690744331855</v>
+      </c>
+      <c r="G12">
+        <v>0.03299147718913338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02133928977307137</v>
+        <v>0.01400805345009516</v>
       </c>
       <c r="C13">
-        <v>-0.01114039926918448</v>
+        <v>0.0315923959865702</v>
       </c>
       <c r="D13">
-        <v>0.01341229560158027</v>
+        <v>0.02503231153654209</v>
       </c>
       <c r="E13">
-        <v>-0.006026334718646818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02309882849405952</v>
+      </c>
+      <c r="F13">
+        <v>-0.01756601629310115</v>
+      </c>
+      <c r="G13">
+        <v>0.04508838946960295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007001163448133365</v>
+        <v>0.007365670547243523</v>
       </c>
       <c r="C14">
-        <v>-0.01137201867318412</v>
+        <v>0.02570350481443325</v>
       </c>
       <c r="D14">
-        <v>0.01566812631936236</v>
+        <v>0.008647496900321702</v>
       </c>
       <c r="E14">
-        <v>0.01271874830214623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005073519784236225</v>
+      </c>
+      <c r="F14">
+        <v>0.0004106684256799092</v>
+      </c>
+      <c r="G14">
+        <v>0.04958076192410235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0007675200172666764</v>
+        <v>0.02990419080455279</v>
       </c>
       <c r="C16">
-        <v>-0.01148206103322481</v>
+        <v>0.04434568217381216</v>
       </c>
       <c r="D16">
-        <v>0.04641157368525065</v>
+        <v>0.001823803129264671</v>
       </c>
       <c r="E16">
-        <v>0.0001763766108585439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007278317741098266</v>
+      </c>
+      <c r="F16">
+        <v>-0.01335220896091658</v>
+      </c>
+      <c r="G16">
+        <v>0.03145851763032386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01321361739615076</v>
+        <v>0.02333114319291637</v>
       </c>
       <c r="C19">
-        <v>-0.02299087831928845</v>
+        <v>0.04768937963673637</v>
       </c>
       <c r="D19">
-        <v>0.02275716727994707</v>
+        <v>0.01653636809069661</v>
       </c>
       <c r="E19">
-        <v>0.004991014503118277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05654209897266343</v>
+      </c>
+      <c r="F19">
+        <v>-0.03239292323296641</v>
+      </c>
+      <c r="G19">
+        <v>0.05655312269281502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009916251477744853</v>
+        <v>0.01077137046215512</v>
       </c>
       <c r="C20">
-        <v>-0.00322735307898391</v>
+        <v>0.03311325491569255</v>
       </c>
       <c r="D20">
-        <v>0.0112240159334552</v>
+        <v>0.01322034356731744</v>
       </c>
       <c r="E20">
-        <v>0.000954404845441348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02422496769628471</v>
+      </c>
+      <c r="F20">
+        <v>-0.002692100416511391</v>
+      </c>
+      <c r="G20">
+        <v>0.04707395533712876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0140865675610471</v>
+        <v>0.01334142010575348</v>
       </c>
       <c r="C21">
-        <v>-0.0282481663314957</v>
+        <v>0.03560837353051329</v>
       </c>
       <c r="D21">
-        <v>0.0206567648284024</v>
+        <v>0.01661740950136492</v>
       </c>
       <c r="E21">
-        <v>0.02003960130107076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03090658919496101</v>
+      </c>
+      <c r="F21">
+        <v>-0.009934616818234546</v>
+      </c>
+      <c r="G21">
+        <v>0.06878765595155002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00466213981540401</v>
+        <v>0.02351052443423044</v>
       </c>
       <c r="C24">
-        <v>-0.003029218731915698</v>
+        <v>0.04723039656012742</v>
       </c>
       <c r="D24">
-        <v>0.04254731482052974</v>
+        <v>0.007226706038256822</v>
       </c>
       <c r="E24">
-        <v>-0.00165343203682615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003219200742757531</v>
+      </c>
+      <c r="F24">
+        <v>-0.02294921690468806</v>
+      </c>
+      <c r="G24">
+        <v>0.03282390000389181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01126352539422023</v>
+        <v>0.03842436257639307</v>
       </c>
       <c r="C25">
-        <v>-0.01976562626551477</v>
+        <v>0.05509063276512977</v>
       </c>
       <c r="D25">
-        <v>0.04354689490138958</v>
+        <v>0.01134584991291803</v>
       </c>
       <c r="E25">
-        <v>-0.0007819273692641242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.003845212472004854</v>
+      </c>
+      <c r="F25">
+        <v>-0.01852832604640104</v>
+      </c>
+      <c r="G25">
+        <v>0.03942709758202035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02245267098459359</v>
+        <v>0.01135179505170559</v>
       </c>
       <c r="C26">
-        <v>-0.008894352656281456</v>
+        <v>0.008870879498648059</v>
       </c>
       <c r="D26">
-        <v>-0.007272779885820023</v>
+        <v>0.02345707505054583</v>
       </c>
       <c r="E26">
-        <v>0.01042901170592393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003208884673028648</v>
+      </c>
+      <c r="F26">
+        <v>-0.0009224750128479496</v>
+      </c>
+      <c r="G26">
+        <v>0.03673489093904304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03236085983728412</v>
+        <v>0.1194504953828689</v>
       </c>
       <c r="C28">
-        <v>-0.2422008712141342</v>
+        <v>-0.23102850771933</v>
       </c>
       <c r="D28">
-        <v>-0.1635604080550042</v>
+        <v>-0.008497023767070233</v>
       </c>
       <c r="E28">
-        <v>0.01738053270089017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0007322477080741945</v>
+      </c>
+      <c r="F28">
+        <v>0.0144115910206747</v>
+      </c>
+      <c r="G28">
+        <v>0.06443054522681944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007257178322422992</v>
+        <v>0.0106152901314242</v>
       </c>
       <c r="C29">
-        <v>-0.01653402805969809</v>
+        <v>0.01996687820293728</v>
       </c>
       <c r="D29">
-        <v>0.01263872917873214</v>
+        <v>0.007465333757150273</v>
       </c>
       <c r="E29">
-        <v>0.007545672480694979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007045555222454028</v>
+      </c>
+      <c r="F29">
+        <v>0.009390408148055382</v>
+      </c>
+      <c r="G29">
+        <v>0.04016637400152578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02268487933573862</v>
+        <v>0.04208884009442511</v>
       </c>
       <c r="C30">
-        <v>0.0027635921458307</v>
+        <v>0.06402263593821937</v>
       </c>
       <c r="D30">
-        <v>0.06512900228500031</v>
+        <v>0.02769417756449795</v>
       </c>
       <c r="E30">
-        <v>-0.05521828529444308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04162156169042044</v>
+      </c>
+      <c r="F30">
+        <v>-0.05576343510505369</v>
+      </c>
+      <c r="G30">
+        <v>0.018775032556368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007683891932229427</v>
+        <v>0.04930871417661169</v>
       </c>
       <c r="C31">
-        <v>-0.04212148247953158</v>
+        <v>0.03352379922101664</v>
       </c>
       <c r="D31">
-        <v>0.04491674532922318</v>
+        <v>0.003525718978016809</v>
       </c>
       <c r="E31">
-        <v>0.009308209804506175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.003672315991297898</v>
+      </c>
+      <c r="F31">
+        <v>0.02954309303641036</v>
+      </c>
+      <c r="G31">
+        <v>0.0399355142433505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007152719970246382</v>
+        <v>-0.003024576282679384</v>
       </c>
       <c r="C32">
-        <v>-0.01793260238218588</v>
+        <v>0.03161567473893165</v>
       </c>
       <c r="D32">
-        <v>-0.00116931064727677</v>
+        <v>-0.004063007409001717</v>
       </c>
       <c r="E32">
-        <v>0.0307931810289736</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01316492528190762</v>
+      </c>
+      <c r="F32">
+        <v>-0.05470769915772015</v>
+      </c>
+      <c r="G32">
+        <v>0.06027167134292572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01216810339266465</v>
+        <v>0.0258856316577929</v>
       </c>
       <c r="C33">
-        <v>-0.02043301547647073</v>
+        <v>0.04658901454226091</v>
       </c>
       <c r="D33">
-        <v>0.02330829845215231</v>
+        <v>0.01460766622084987</v>
       </c>
       <c r="E33">
-        <v>-0.02209766121131973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02743630901285522</v>
+      </c>
+      <c r="F33">
+        <v>-0.03058938826881674</v>
+      </c>
+      <c r="G33">
+        <v>0.04827500320127162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004816616989375756</v>
+        <v>0.03822748994156995</v>
       </c>
       <c r="C34">
-        <v>-0.01776528653829415</v>
+        <v>0.05776186811119319</v>
       </c>
       <c r="D34">
-        <v>0.04832543019380211</v>
+        <v>-0.004451114538716053</v>
       </c>
       <c r="E34">
-        <v>0.007449501309803086</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.003404354066081528</v>
+      </c>
+      <c r="F34">
+        <v>-0.02851258748361762</v>
+      </c>
+      <c r="G34">
+        <v>0.04417277135009383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01189720389906633</v>
+        <v>0.01092759366493742</v>
       </c>
       <c r="C36">
-        <v>-0.01810971366030698</v>
+        <v>0.00742160597704695</v>
       </c>
       <c r="D36">
-        <v>0.001511033958459929</v>
+        <v>0.01151528556908767</v>
       </c>
       <c r="E36">
-        <v>0.004290484873962817</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0005328433291579686</v>
+      </c>
+      <c r="F36">
+        <v>0.002997499806382051</v>
+      </c>
+      <c r="G36">
+        <v>0.03262135909379691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.005442191487634513</v>
+        <v>0.03139446903333736</v>
       </c>
       <c r="C38">
-        <v>-0.03023646796005566</v>
+        <v>0.02828204516014971</v>
       </c>
       <c r="D38">
-        <v>0.02465942280254872</v>
+        <v>-0.007369883303503917</v>
       </c>
       <c r="E38">
-        <v>0.002123798646578147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00663732327897265</v>
+      </c>
+      <c r="F38">
+        <v>0.005182767364184765</v>
+      </c>
+      <c r="G38">
+        <v>0.04117169371567118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005568144850156738</v>
+        <v>0.03026083639592567</v>
       </c>
       <c r="C39">
-        <v>0.01991788301518823</v>
+        <v>0.08027171062367573</v>
       </c>
       <c r="D39">
-        <v>0.09088562546064813</v>
+        <v>0.01215599907780494</v>
       </c>
       <c r="E39">
-        <v>-0.005084619471487745</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02254683521282806</v>
+      </c>
+      <c r="F39">
+        <v>-0.04179288346223337</v>
+      </c>
+      <c r="G39">
+        <v>0.03411741081288375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01004397357496041</v>
+        <v>0.01798633006340897</v>
       </c>
       <c r="C40">
-        <v>-0.00932056595855197</v>
+        <v>0.03212224385089015</v>
       </c>
       <c r="D40">
-        <v>0.03719904364009211</v>
+        <v>0.01331791411163429</v>
       </c>
       <c r="E40">
-        <v>-0.002708687740470216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01931643244017832</v>
+      </c>
+      <c r="F40">
+        <v>-0.02158362490267024</v>
+      </c>
+      <c r="G40">
+        <v>0.03336666879857325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005274575014768047</v>
+        <v>0.01063339904228</v>
       </c>
       <c r="C41">
-        <v>-0.02090564471984295</v>
+        <v>0.000212390189534688</v>
       </c>
       <c r="D41">
-        <v>-0.009737809194205841</v>
+        <v>0.003994874423975547</v>
       </c>
       <c r="E41">
-        <v>0.003273595600095268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0008012200202356525</v>
+      </c>
+      <c r="F41">
+        <v>-0.002199746583480959</v>
+      </c>
+      <c r="G41">
+        <v>0.02289892955807488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0925907673558347</v>
+        <v>0.01429529337441471</v>
       </c>
       <c r="C42">
-        <v>0.01597405773705483</v>
+        <v>0.0435774561754556</v>
       </c>
       <c r="D42">
-        <v>0.2742370806390825</v>
+        <v>0.0947302322700642</v>
       </c>
       <c r="E42">
-        <v>-0.2673575620264923</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03678520339238293</v>
+      </c>
+      <c r="F42">
+        <v>0.04848210468762844</v>
+      </c>
+      <c r="G42">
+        <v>-0.1555348628139468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006346096448435679</v>
+        <v>0.02769835801269652</v>
       </c>
       <c r="C43">
-        <v>-0.02249645596527815</v>
+        <v>0.01140658983898594</v>
       </c>
       <c r="D43">
-        <v>-0.01455612735099783</v>
+        <v>0.004762287048573092</v>
       </c>
       <c r="E43">
-        <v>-0.002409832952743743</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008327316616491044</v>
+      </c>
+      <c r="F43">
+        <v>-0.0009207650146938898</v>
+      </c>
+      <c r="G43">
+        <v>0.03331468612941477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002950570534530473</v>
+        <v>0.01251784292044364</v>
       </c>
       <c r="C44">
-        <v>-0.002272501739006599</v>
+        <v>0.04833307538781698</v>
       </c>
       <c r="D44">
-        <v>0.02683728542788136</v>
+        <v>0.006464613791267684</v>
       </c>
       <c r="E44">
-        <v>0.004131367993318095</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01661713641861985</v>
+      </c>
+      <c r="F44">
+        <v>-0.007257847978474088</v>
+      </c>
+      <c r="G44">
+        <v>0.05059416310285688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01048715457822353</v>
+        <v>0.004480596400210327</v>
       </c>
       <c r="C46">
-        <v>-0.0160417808349229</v>
+        <v>0.01677833861836755</v>
       </c>
       <c r="D46">
-        <v>0.01104621233337812</v>
+        <v>0.01160137725792341</v>
       </c>
       <c r="E46">
-        <v>0.002947957719307796</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.004438733265697436</v>
+      </c>
+      <c r="F46">
+        <v>0.01238401396105788</v>
+      </c>
+      <c r="G46">
+        <v>0.03685673362278799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001706107393393405</v>
+        <v>0.07458093259536065</v>
       </c>
       <c r="C47">
-        <v>-0.05311256127097931</v>
+        <v>0.06550860428339689</v>
       </c>
       <c r="D47">
-        <v>0.05632647760982835</v>
+        <v>-0.004777762283101564</v>
       </c>
       <c r="E47">
-        <v>-0.0008837773980610443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00762790990363372</v>
+      </c>
+      <c r="F47">
+        <v>0.0487832287933663</v>
+      </c>
+      <c r="G47">
+        <v>0.03785722817759505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002731684720612547</v>
+        <v>0.01989134446304359</v>
       </c>
       <c r="C48">
-        <v>-0.02583597367035806</v>
+        <v>0.009745329478869778</v>
       </c>
       <c r="D48">
-        <v>0.01175423129064726</v>
+        <v>0.0008521393575792185</v>
       </c>
       <c r="E48">
-        <v>0.003261521822182184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003466611558902457</v>
+      </c>
+      <c r="F48">
+        <v>0.01209522281360617</v>
+      </c>
+      <c r="G48">
+        <v>0.03869938172768913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.00257830411040169</v>
+        <v>0.07856445818554855</v>
       </c>
       <c r="C50">
-        <v>-0.04337259230580168</v>
+        <v>0.06757071290058748</v>
       </c>
       <c r="D50">
-        <v>0.06263235257904505</v>
+        <v>-0.003159183993774319</v>
       </c>
       <c r="E50">
-        <v>0.02625073038988439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01044639232931249</v>
+      </c>
+      <c r="F50">
+        <v>0.04978893380210507</v>
+      </c>
+      <c r="G50">
+        <v>0.06257879276533884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00702001701685091</v>
+        <v>0.009965266478911636</v>
       </c>
       <c r="C51">
-        <v>-0.01884854507261264</v>
+        <v>0.02545528639604587</v>
       </c>
       <c r="D51">
-        <v>-0.01296429913004376</v>
+        <v>0.009256809434838018</v>
       </c>
       <c r="E51">
-        <v>0.01106910964040622</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01115984679626864</v>
+      </c>
+      <c r="F51">
+        <v>-0.02459398846579539</v>
+      </c>
+      <c r="G51">
+        <v>0.06467678588428606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.004657954456629094</v>
+        <v>0.0823002488366968</v>
       </c>
       <c r="C53">
-        <v>-0.06732658913499051</v>
+        <v>0.08024302226177073</v>
       </c>
       <c r="D53">
-        <v>0.1172386149200732</v>
+        <v>-0.004196709973034138</v>
       </c>
       <c r="E53">
-        <v>0.008124858147060095</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03150032317925282</v>
+      </c>
+      <c r="F53">
+        <v>0.05436208168948741</v>
+      </c>
+      <c r="G53">
+        <v>0.04147630129025638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0006436848351003012</v>
+        <v>0.03035383366363609</v>
       </c>
       <c r="C54">
-        <v>-0.03481341952084214</v>
+        <v>0.01155037317737583</v>
       </c>
       <c r="D54">
-        <v>-0.008726228909834937</v>
+        <v>-0.002870278582791821</v>
       </c>
       <c r="E54">
-        <v>0.01171299811380258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.001756675273524404</v>
+      </c>
+      <c r="F54">
+        <v>0.001249700080530505</v>
+      </c>
+      <c r="G54">
+        <v>0.04192567892093891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.002007087915284396</v>
+        <v>0.0700869687917383</v>
       </c>
       <c r="C55">
-        <v>-0.04819457294568873</v>
+        <v>0.07237135173913678</v>
       </c>
       <c r="D55">
-        <v>0.101597485986506</v>
+        <v>-0.004592214966934937</v>
       </c>
       <c r="E55">
-        <v>-0.00423489213449151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02317509044557122</v>
+      </c>
+      <c r="F55">
+        <v>0.05257464928503879</v>
+      </c>
+      <c r="G55">
+        <v>0.0220851682306435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.002282178467369576</v>
+        <v>0.1409113652341344</v>
       </c>
       <c r="C56">
-        <v>-0.09103332181798528</v>
+        <v>0.105593205772578</v>
       </c>
       <c r="D56">
-        <v>0.1491936615003897</v>
+        <v>-0.01280851165301203</v>
       </c>
       <c r="E56">
-        <v>-0.003096087416103466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03648990771740251</v>
+      </c>
+      <c r="F56">
+        <v>0.07920422096129731</v>
+      </c>
+      <c r="G56">
+        <v>0.01220265685819103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0238114900468122</v>
+        <v>0.009586298093252295</v>
       </c>
       <c r="C57">
-        <v>-0.0221902046909567</v>
+        <v>0.01045708874527728</v>
       </c>
       <c r="D57">
-        <v>0.04214809033782024</v>
+        <v>0.02369321737105597</v>
       </c>
       <c r="E57">
-        <v>-0.002521629403874801</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02697194467258933</v>
+      </c>
+      <c r="F57">
+        <v>-0.01539735712640634</v>
+      </c>
+      <c r="G57">
+        <v>0.0238271267895842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01007779517799281</v>
+        <v>0.07892989917021563</v>
       </c>
       <c r="C58">
-        <v>-0.08461781709277134</v>
+        <v>0.04068498385334042</v>
       </c>
       <c r="D58">
-        <v>0.09945273839040217</v>
+        <v>0.01777948521700249</v>
       </c>
       <c r="E58">
-        <v>-0.2054828714430352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9488949788507658</v>
+      </c>
+      <c r="F58">
+        <v>0.2098605742337618</v>
+      </c>
+      <c r="G58">
+        <v>-0.007739421920466626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02847390963669876</v>
+        <v>0.1606444864343136</v>
       </c>
       <c r="C59">
-        <v>-0.2540146970224292</v>
+        <v>-0.2117814667568485</v>
       </c>
       <c r="D59">
-        <v>-0.1621643862571203</v>
+        <v>-0.01569214010420062</v>
       </c>
       <c r="E59">
-        <v>-0.006564608771191483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.006255291195970729</v>
+      </c>
+      <c r="F59">
+        <v>-0.001270819224434066</v>
+      </c>
+      <c r="G59">
+        <v>0.02173746841373786</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03239566369793286</v>
+        <v>0.2868113153924798</v>
       </c>
       <c r="C60">
-        <v>-0.1547604518009177</v>
+        <v>0.1027892408890893</v>
       </c>
       <c r="D60">
-        <v>0.09156589397477248</v>
+        <v>0.01099046139619713</v>
       </c>
       <c r="E60">
-        <v>-0.04056579210854139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0103287743189109</v>
+      </c>
+      <c r="F60">
+        <v>-0.3497861571996099</v>
+      </c>
+      <c r="G60">
+        <v>-0.1035485533400613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002986848117158727</v>
+        <v>0.03210618208713412</v>
       </c>
       <c r="C61">
-        <v>-0.006573175205032739</v>
+        <v>0.06524444068145668</v>
       </c>
       <c r="D61">
-        <v>0.06507030729946378</v>
+        <v>0.005514457025640053</v>
       </c>
       <c r="E61">
-        <v>-0.001881335811981154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01034014928905744</v>
+      </c>
+      <c r="F61">
+        <v>-0.024655428643214</v>
+      </c>
+      <c r="G61">
+        <v>0.03219350689589602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007144224188948046</v>
+        <v>0.01197141968197133</v>
       </c>
       <c r="C63">
-        <v>-0.007330706400652193</v>
+        <v>0.02776442143269292</v>
       </c>
       <c r="D63">
-        <v>0.006382141371413298</v>
+        <v>0.008085068274437682</v>
       </c>
       <c r="E63">
-        <v>0.01013546270135658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004039723634968718</v>
+      </c>
+      <c r="F63">
+        <v>0.01320411740679814</v>
+      </c>
+      <c r="G63">
+        <v>0.04491875916283467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006971093618682592</v>
+        <v>0.0500665099935805</v>
       </c>
       <c r="C64">
-        <v>-0.02623255757799494</v>
+        <v>0.04170515590491291</v>
       </c>
       <c r="D64">
-        <v>0.06182467870126703</v>
+        <v>0.005568798852768423</v>
       </c>
       <c r="E64">
-        <v>-0.008068187923728187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.004721875319040878</v>
+      </c>
+      <c r="F64">
+        <v>-0.00827314562152673</v>
+      </c>
+      <c r="G64">
+        <v>0.02997826669207258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01747537469894072</v>
+        <v>0.08187276732444743</v>
       </c>
       <c r="C65">
-        <v>-0.02068909592070378</v>
+        <v>0.06105703784514212</v>
       </c>
       <c r="D65">
-        <v>0.09332638941250618</v>
+        <v>0.01506976198440648</v>
       </c>
       <c r="E65">
-        <v>0.006715468110984479</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0158636655934809</v>
+      </c>
+      <c r="F65">
+        <v>-0.03320070004101725</v>
+      </c>
+      <c r="G65">
+        <v>0.01786766370889996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005250474078659494</v>
+        <v>0.04853025602164936</v>
       </c>
       <c r="C66">
-        <v>0.0118212864203869</v>
+        <v>0.1131059998713067</v>
       </c>
       <c r="D66">
-        <v>0.1176386060519658</v>
+        <v>0.01206228714805132</v>
       </c>
       <c r="E66">
-        <v>-0.0186281734093344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02805615198831133</v>
+      </c>
+      <c r="F66">
+        <v>-0.05186947237260636</v>
+      </c>
+      <c r="G66">
+        <v>0.02912514101459054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>9.727915094941876e-05</v>
+        <v>0.05386166334881578</v>
       </c>
       <c r="C67">
-        <v>-0.04896834607448</v>
+        <v>0.03270943884734838</v>
       </c>
       <c r="D67">
-        <v>0.02987842236651656</v>
+        <v>-0.005440365679461664</v>
       </c>
       <c r="E67">
-        <v>0.0001091845059882379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0003832825204396321</v>
+      </c>
+      <c r="F67">
+        <v>0.008751024984158699</v>
+      </c>
+      <c r="G67">
+        <v>0.03858182365911839</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04670705582822763</v>
+        <v>0.141526350632511</v>
       </c>
       <c r="C68">
-        <v>-0.2314297789803976</v>
+        <v>-0.2699380842557786</v>
       </c>
       <c r="D68">
-        <v>-0.1526313690423814</v>
+        <v>0.002717420063947523</v>
       </c>
       <c r="E68">
-        <v>-0.01218176319658411</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0065842663624033</v>
+      </c>
+      <c r="F68">
+        <v>0.0406169865756844</v>
+      </c>
+      <c r="G68">
+        <v>0.02421622025964975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003343134478807004</v>
+        <v>0.07564750253333126</v>
       </c>
       <c r="C69">
-        <v>-0.03745604405199204</v>
+        <v>0.06722864846315253</v>
       </c>
       <c r="D69">
-        <v>0.06019870665776478</v>
+        <v>-0.008701930358126154</v>
       </c>
       <c r="E69">
-        <v>0.00392117687600107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02507374917822133</v>
+      </c>
+      <c r="F69">
+        <v>0.031700678644563</v>
+      </c>
+      <c r="G69">
+        <v>0.03929535649482684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03321980856624396</v>
+        <v>0.1370511535031711</v>
       </c>
       <c r="C71">
-        <v>-0.2018553399600412</v>
+        <v>-0.233845385063518</v>
       </c>
       <c r="D71">
-        <v>-0.141727527576147</v>
+        <v>-0.006152991057112914</v>
       </c>
       <c r="E71">
-        <v>0.002395993422965901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02596173796616766</v>
+      </c>
+      <c r="F71">
+        <v>0.008245389611246398</v>
+      </c>
+      <c r="G71">
+        <v>0.03728279017943995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002045087439426045</v>
+        <v>0.08426156538883552</v>
       </c>
       <c r="C72">
-        <v>-0.04502934733049928</v>
+        <v>0.07363810325339343</v>
       </c>
       <c r="D72">
-        <v>0.1335442923938291</v>
+        <v>-0.008295356329458926</v>
       </c>
       <c r="E72">
-        <v>-0.01906384397580771</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005981766946156412</v>
+      </c>
+      <c r="F72">
+        <v>-0.04093684928851561</v>
+      </c>
+      <c r="G72">
+        <v>0.01369659850461585</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.0465990178580077</v>
+        <v>0.397696338554537</v>
       </c>
       <c r="C73">
-        <v>-0.1867809833162155</v>
+        <v>0.1159154867280945</v>
       </c>
       <c r="D73">
-        <v>0.1718286785537594</v>
+        <v>0.01718085227615382</v>
       </c>
       <c r="E73">
-        <v>-0.1003694192472528</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.04705922486545255</v>
+      </c>
+      <c r="F73">
+        <v>-0.54546970718358</v>
+      </c>
+      <c r="G73">
+        <v>-0.1836730661298009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>9.201572809876329e-05</v>
+        <v>0.1107239541974832</v>
       </c>
       <c r="C74">
-        <v>-0.0829063682472707</v>
+        <v>0.116833091894428</v>
       </c>
       <c r="D74">
-        <v>0.1539420270959384</v>
+        <v>-0.009740094869142832</v>
       </c>
       <c r="E74">
-        <v>-0.009419755240699705</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01481731731183575</v>
+      </c>
+      <c r="F74">
+        <v>0.06986482979628887</v>
+      </c>
+      <c r="G74">
+        <v>0.04901206735987513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.00476298026881474</v>
+        <v>0.2486038580539171</v>
       </c>
       <c r="C75">
-        <v>-0.1950616640326982</v>
+        <v>0.1563125700621226</v>
       </c>
       <c r="D75">
-        <v>0.2800297751974993</v>
+        <v>-0.02975372991649967</v>
       </c>
       <c r="E75">
-        <v>-0.03121736096658561</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05048670161012433</v>
+      </c>
+      <c r="F75">
+        <v>0.1869520733285137</v>
+      </c>
+      <c r="G75">
+        <v>-0.02853744126106602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.003765386840895984</v>
+        <v>0.1251401605427401</v>
       </c>
       <c r="C76">
-        <v>-0.1304460659732214</v>
+        <v>0.1208048149776361</v>
       </c>
       <c r="D76">
-        <v>0.2259750663495409</v>
+        <v>-0.02050378457746723</v>
       </c>
       <c r="E76">
-        <v>0.004592200847967545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04842208725427864</v>
+      </c>
+      <c r="F76">
+        <v>0.1144712034763767</v>
+      </c>
+      <c r="G76">
+        <v>0.0261112359109254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01163417559069109</v>
+        <v>0.06504066932655478</v>
       </c>
       <c r="C77">
-        <v>-0.0153894327933771</v>
+        <v>0.06191999719929293</v>
       </c>
       <c r="D77">
-        <v>0.0519020373077044</v>
+        <v>0.01223034849611334</v>
       </c>
       <c r="E77">
-        <v>-0.005676695383867649</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0496054615345933</v>
+      </c>
+      <c r="F77">
+        <v>-0.01837545042264038</v>
+      </c>
+      <c r="G77">
+        <v>0.04770950415171191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003797278381305239</v>
+        <v>0.03959755973377341</v>
       </c>
       <c r="C78">
-        <v>-0.009482756762229922</v>
+        <v>0.05071078747978437</v>
       </c>
       <c r="D78">
-        <v>0.06585421271705492</v>
+        <v>0.005725635057849224</v>
       </c>
       <c r="E78">
-        <v>0.001641108279254449</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02110674934231609</v>
+      </c>
+      <c r="F78">
+        <v>-0.04630200355620093</v>
+      </c>
+      <c r="G78">
+        <v>0.04097974042147536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01622853900419079</v>
+        <v>0.05381668742870641</v>
       </c>
       <c r="C80">
-        <v>-0.1232526567299767</v>
+        <v>0.06285696115945208</v>
       </c>
       <c r="D80">
-        <v>0.1720566816727893</v>
+        <v>0.01350858162610991</v>
       </c>
       <c r="E80">
-        <v>0.9125120353083478</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03323038330598013</v>
+      </c>
+      <c r="F80">
+        <v>-0.06412011031200472</v>
+      </c>
+      <c r="G80">
+        <v>0.8778833686981726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.003779572167967387</v>
+        <v>0.1445979617791798</v>
       </c>
       <c r="C81">
-        <v>-0.1193223053617973</v>
+        <v>0.09514409308443508</v>
       </c>
       <c r="D81">
-        <v>0.1683448696100503</v>
+        <v>-0.01493626281364982</v>
       </c>
       <c r="E81">
-        <v>-0.00752954599397831</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.02778226646140735</v>
+      </c>
+      <c r="F81">
+        <v>0.1182625742696047</v>
+      </c>
+      <c r="G81">
+        <v>0.0231364041622755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.09523625832704859</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05123487287675628</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.004794683005095403</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07381688386342303</v>
+      </c>
+      <c r="F82">
+        <v>0.01104395759592857</v>
+      </c>
+      <c r="G82">
+        <v>0.01103177823992708</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006634545153696074</v>
+        <v>0.03108300281893477</v>
       </c>
       <c r="C83">
-        <v>-0.02572025931962311</v>
+        <v>0.0201113074282078</v>
       </c>
       <c r="D83">
-        <v>0.02198684208913983</v>
+        <v>0.005192473464064173</v>
       </c>
       <c r="E83">
-        <v>-0.002971370542085286</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02556988170984554</v>
+      </c>
+      <c r="F83">
+        <v>-0.02447749934174783</v>
+      </c>
+      <c r="G83">
+        <v>0.02893362027316378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01129984038598916</v>
+        <v>0.2235208686888723</v>
       </c>
       <c r="C85">
-        <v>-0.1464160705183483</v>
+        <v>0.1502719383332428</v>
       </c>
       <c r="D85">
-        <v>0.2647904257839048</v>
+        <v>-0.01813803338350414</v>
       </c>
       <c r="E85">
-        <v>-0.03323749435237007</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09269673396680464</v>
+      </c>
+      <c r="F85">
+        <v>0.1637538254984053</v>
+      </c>
+      <c r="G85">
+        <v>-0.04912182857649546</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006671904389603145</v>
+        <v>0.00909657189899514</v>
       </c>
       <c r="C86">
-        <v>-0.02545577542185965</v>
+        <v>0.01532240346613732</v>
       </c>
       <c r="D86">
-        <v>0.007900631627876542</v>
+        <v>0.01005464507753552</v>
       </c>
       <c r="E86">
-        <v>-0.02079361605932027</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03337630536772586</v>
+      </c>
+      <c r="F86">
+        <v>-0.03855142466490164</v>
+      </c>
+      <c r="G86">
+        <v>0.06664358554990028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007327246409148795</v>
+        <v>0.01862670408499351</v>
       </c>
       <c r="C87">
-        <v>-0.01167526430148168</v>
+        <v>0.02477902079651502</v>
       </c>
       <c r="D87">
-        <v>0.04093141102882902</v>
+        <v>0.01103825829193065</v>
       </c>
       <c r="E87">
-        <v>-0.0008770763759964129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08240544735121925</v>
+      </c>
+      <c r="F87">
+        <v>-0.03218079394858727</v>
+      </c>
+      <c r="G87">
+        <v>0.05656802073143422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02638404033751066</v>
+        <v>0.08864502494508605</v>
       </c>
       <c r="C88">
-        <v>-0.03781703867124377</v>
+        <v>0.06422299325723689</v>
       </c>
       <c r="D88">
-        <v>0.03447610571778677</v>
+        <v>0.02272636096880854</v>
       </c>
       <c r="E88">
-        <v>-0.003274228551151738</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01431045339815278</v>
+      </c>
+      <c r="F88">
+        <v>0.01400388351436143</v>
+      </c>
+      <c r="G88">
+        <v>0.03485845278399537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06288911913489191</v>
+        <v>0.2275055956734455</v>
       </c>
       <c r="C89">
-        <v>-0.3665076958234008</v>
+        <v>-0.3612156640113789</v>
       </c>
       <c r="D89">
-        <v>-0.2317452361689774</v>
+        <v>-0.004962115013947868</v>
       </c>
       <c r="E89">
-        <v>-0.02177404817343354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01830355543456629</v>
+      </c>
+      <c r="F89">
+        <v>0.02572479973270847</v>
+      </c>
+      <c r="G89">
+        <v>0.03662284245344712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04806739301543286</v>
+        <v>0.1998677217044307</v>
       </c>
       <c r="C90">
-        <v>-0.2843115764202085</v>
+        <v>-0.325386888417256</v>
       </c>
       <c r="D90">
-        <v>-0.2187052766441976</v>
+        <v>-0.008929684259184239</v>
       </c>
       <c r="E90">
-        <v>-0.01997358986621616</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01879286831125221</v>
+      </c>
+      <c r="F90">
+        <v>0.04472979304885423</v>
+      </c>
+      <c r="G90">
+        <v>0.007009512863224496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0004425481925786119</v>
+        <v>0.1995036576424573</v>
       </c>
       <c r="C91">
-        <v>-0.1555848633110394</v>
+        <v>0.1410667634830085</v>
       </c>
       <c r="D91">
-        <v>0.2375020939839394</v>
+        <v>-0.02379631663954048</v>
       </c>
       <c r="E91">
-        <v>-0.01322636932824549</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06831962753318299</v>
+      </c>
+      <c r="F91">
+        <v>0.1597247524820267</v>
+      </c>
+      <c r="G91">
+        <v>0.01209699039038823</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01372115692872113</v>
+        <v>0.2060854440227499</v>
       </c>
       <c r="C92">
-        <v>-0.3166449864698864</v>
+        <v>-0.2623564299039857</v>
       </c>
       <c r="D92">
-        <v>-0.09862088723549665</v>
+        <v>-0.04575746903091</v>
       </c>
       <c r="E92">
-        <v>-0.016834006280382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.00731981106493191</v>
+      </c>
+      <c r="F92">
+        <v>0.07158682099427115</v>
+      </c>
+      <c r="G92">
+        <v>0.07416871065736506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04551634605801489</v>
+        <v>0.2295190903626312</v>
       </c>
       <c r="C93">
-        <v>-0.3208865650994649</v>
+        <v>-0.3253925792815797</v>
       </c>
       <c r="D93">
-        <v>-0.2120855621235973</v>
+        <v>-0.01656390425079057</v>
       </c>
       <c r="E93">
-        <v>-0.04548372886131906</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.003522513141126121</v>
+      </c>
+      <c r="F93">
+        <v>0.03748759465047192</v>
+      </c>
+      <c r="G93">
+        <v>-0.000475842552899386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02265517633958314</v>
+        <v>0.3047283597964008</v>
       </c>
       <c r="C94">
-        <v>-0.1935738983444828</v>
+        <v>0.1902898749139177</v>
       </c>
       <c r="D94">
-        <v>0.2545814250403126</v>
+        <v>-0.01481893254623565</v>
       </c>
       <c r="E94">
-        <v>-0.06367850981620012</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1454588301431285</v>
+      </c>
+      <c r="F94">
+        <v>0.5064441641486096</v>
+      </c>
+      <c r="G94">
+        <v>-0.1501392850505759</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005495562855233794</v>
+        <v>0.08447921261085541</v>
       </c>
       <c r="C95">
-        <v>-0.04645959279586775</v>
+        <v>0.07483312534953845</v>
       </c>
       <c r="D95">
-        <v>0.09386036221275204</v>
+        <v>-0.008085346256240647</v>
       </c>
       <c r="E95">
-        <v>-0.113007887445474</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06380039617547424</v>
+      </c>
+      <c r="F95">
+        <v>-0.1582303972910856</v>
+      </c>
+      <c r="G95">
+        <v>-0.07951907321595388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.007811017352376156</v>
+        <v>0.198231883358263</v>
       </c>
       <c r="C98">
-        <v>-0.1615845347604587</v>
+        <v>0.04324087728091461</v>
       </c>
       <c r="D98">
-        <v>0.1294107970394046</v>
+        <v>-0.01414363100915534</v>
       </c>
       <c r="E98">
-        <v>-0.06023732340594173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06103985073647707</v>
+      </c>
+      <c r="F98">
+        <v>-0.250334544574042</v>
+      </c>
+      <c r="G98">
+        <v>-0.0379438435137007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00708965452337634</v>
+        <v>0.01044110286323829</v>
       </c>
       <c r="C101">
-        <v>-0.01678808100691014</v>
+        <v>0.02003311253875995</v>
       </c>
       <c r="D101">
-        <v>0.0128504828411231</v>
+        <v>0.007281976747539602</v>
       </c>
       <c r="E101">
-        <v>0.007733189557262518</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.007319486558078086</v>
+      </c>
+      <c r="F101">
+        <v>0.01071067813960524</v>
+      </c>
+      <c r="G101">
+        <v>0.04013715434484425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01516248142685543</v>
+        <v>0.1192113821177161</v>
       </c>
       <c r="C102">
-        <v>-0.08875810155021496</v>
+        <v>0.08485246539224814</v>
       </c>
       <c r="D102">
-        <v>0.1303418293371902</v>
+        <v>0.001648145252364122</v>
       </c>
       <c r="E102">
-        <v>-0.01637316817159398</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.02764347463663048</v>
+      </c>
+      <c r="F102">
+        <v>0.03424632381232856</v>
+      </c>
+      <c r="G102">
+        <v>-0.0001351145929088932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001421744471075668</v>
+        <v>0.003487429599179302</v>
       </c>
       <c r="C103">
-        <v>-0.01206316071464165</v>
+        <v>0.004758057288204126</v>
       </c>
       <c r="D103">
-        <v>0.02577742350835761</v>
+        <v>0.0002023505752686506</v>
       </c>
       <c r="E103">
-        <v>0.0151019723832252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.00193256832561234</v>
+      </c>
+      <c r="F103">
+        <v>0.008483491464197978</v>
+      </c>
+      <c r="G103">
+        <v>0.01755048237243707</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9828875196961212</v>
+        <v>0.02923854135836427</v>
       </c>
       <c r="C104">
-        <v>0.1244457601314946</v>
+        <v>-0.03803215574887398</v>
       </c>
       <c r="D104">
-        <v>-0.009344623150222867</v>
+        <v>0.9874316958446362</v>
       </c>
       <c r="E104">
-        <v>0.02513583720617756</v>
+        <v>-0.0396840832364988</v>
+      </c>
+      <c r="F104">
+        <v>0.04202488877136389</v>
+      </c>
+      <c r="G104">
+        <v>-0.01061041771199572</v>
       </c>
     </row>
   </sheetData>
